--- a/pensum_copy.xlsx
+++ b/pensum_copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neno/Documents/TransiciónCDAT/Estudio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5760BEC-5B29-3D43-897E-94C82452F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39055C99-4CA8-0B49-9B5F-B3A82BE06584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="28540" windowHeight="19720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="230">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -139,24 +139,15 @@
     <t>D02A</t>
   </si>
   <si>
-    <t>ISCO-C01A</t>
-  </si>
-  <si>
     <t>H03A</t>
   </si>
   <si>
     <t>CONSTITUCIÓN POLÍTICA</t>
   </si>
   <si>
-    <t>CHUL-LE1A</t>
-  </si>
-  <si>
     <t>M05A</t>
   </si>
   <si>
-    <t>CBAS-M02A</t>
-  </si>
-  <si>
     <t>CBAS-M03A</t>
   </si>
   <si>
@@ -190,9 +181,6 @@
     <t>ELECTIVA DE HUMANIDADES I</t>
   </si>
   <si>
-    <t>CHUL-LE2A</t>
-  </si>
-  <si>
     <t>M06A</t>
   </si>
   <si>
@@ -226,9 +214,6 @@
     <t>ELECTIVA DE HUMANIDADES II</t>
   </si>
   <si>
-    <t>CHUL-LE3A</t>
-  </si>
-  <si>
     <t>CBAS-M06A</t>
   </si>
   <si>
@@ -244,15 +229,9 @@
     <t>ALGORITMOS Y COMPLEJIDAD</t>
   </si>
   <si>
-    <t>ISCO-C03A</t>
-  </si>
-  <si>
     <t>CIUDADANÍA GLOBAL</t>
   </si>
   <si>
-    <t>CHUL-LE4A</t>
-  </si>
-  <si>
     <t>D05A</t>
   </si>
   <si>
@@ -268,9 +247,6 @@
     <t>PROCESOS ESTOCÁSTICOS</t>
   </si>
   <si>
-    <t>IIND-R01A</t>
-  </si>
-  <si>
     <t>ELECTIVA COMPLEMENTARIA II</t>
   </si>
   <si>
@@ -530,9 +506,6 @@
   </si>
   <si>
     <t>M02B</t>
-  </si>
-  <si>
-    <t>AEMP-G01A</t>
   </si>
   <si>
     <t>C06B</t>
@@ -1066,7 +1039,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1184,7 +1157,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1211,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1238,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1262,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1319,7 +1292,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1346,7 +1319,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1376,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1400,10 +1373,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1430,13 +1403,13 @@
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -1457,10 +1430,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1484,16 +1457,16 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -1514,19 +1487,19 @@
         <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -1547,16 +1520,16 @@
         <v>18</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -1577,16 +1550,16 @@
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
@@ -1610,19 +1583,19 @@
         <v>24</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -1643,10 +1616,10 @@
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1670,16 +1643,16 @@
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -1700,16 +1673,16 @@
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -1730,16 +1703,16 @@
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -1763,13 +1736,13 @@
         <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
         <v>29</v>
@@ -1793,16 +1766,16 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -1823,16 +1796,16 @@
         <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -1853,10 +1826,10 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1880,16 +1853,16 @@
         <v>28</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
@@ -1910,16 +1883,16 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -1943,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -1964,19 +1937,19 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -1997,16 +1970,16 @@
         <v>24</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
@@ -2027,10 +2000,10 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -2054,16 +2027,16 @@
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ref="J34:J52" si="1">_xlfn.CONCAT(D34,"-",E34)</f>
@@ -2084,19 +2057,19 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
@@ -2114,22 +2087,22 @@
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="1"/>
@@ -2150,10 +2123,10 @@
         <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -2177,19 +2150,19 @@
         <v>20</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="1"/>
@@ -2210,16 +2183,16 @@
         <v>24</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="1"/>
@@ -2240,10 +2213,10 @@
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -2267,19 +2240,19 @@
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="1"/>
@@ -2300,16 +2273,16 @@
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="1"/>
@@ -2330,10 +2303,10 @@
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -2357,16 +2330,16 @@
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G44">
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="1"/>
@@ -2387,16 +2360,16 @@
         <v>22</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="1"/>
@@ -2414,13 +2387,13 @@
         <v>8</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -2444,16 +2417,16 @@
         <v>20</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="1"/>
@@ -2474,16 +2447,16 @@
         <v>20</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="1"/>
@@ -2504,10 +2477,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -2531,16 +2504,16 @@
         <v>20</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="1"/>
@@ -2561,10 +2534,10 @@
         <v>20</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G51">
         <v>9</v>
@@ -2588,10 +2561,10 @@
         <v>20</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -2617,7 +2590,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2664,10 +2637,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2676,10 +2649,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1">
         <v>3</v>
@@ -2691,10 +2664,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2718,10 +2691,10 @@
     </row>
     <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2730,10 +2703,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1">
         <v>4</v>
@@ -2745,10 +2718,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2760,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -2772,10 +2745,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2787,7 +2760,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -2799,10 +2772,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2814,7 +2787,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -2826,10 +2799,10 @@
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2838,16 +2811,16 @@
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
@@ -2856,10 +2829,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2871,7 +2844,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -2883,22 +2856,22 @@
     </row>
     <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1">
         <v>0.5</v>
@@ -2910,10 +2883,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2922,10 +2895,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
@@ -2937,10 +2910,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2952,7 +2925,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -2964,10 +2937,10 @@
     </row>
     <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2976,16 +2949,16 @@
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -2994,10 +2967,10 @@
     </row>
     <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3006,10 +2979,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -3021,10 +2994,10 @@
     </row>
     <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3033,16 +3006,16 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G15" s="1">
         <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -3051,28 +3024,28 @@
     </row>
     <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G16" s="1">
         <v>0.5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -3081,10 +3054,10 @@
     </row>
     <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3093,19 +3066,19 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G17" s="1">
         <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -3114,10 +3087,10 @@
     </row>
     <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -3126,16 +3099,16 @@
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -3144,10 +3117,10 @@
     </row>
     <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3156,16 +3129,16 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -3174,10 +3147,10 @@
     </row>
     <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -3186,10 +3159,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -3201,10 +3174,10 @@
     </row>
     <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -3213,16 +3186,16 @@
         <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -3231,10 +3204,10 @@
     </row>
     <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -3243,16 +3216,16 @@
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G22" s="1">
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -3261,10 +3234,10 @@
     </row>
     <row r="23" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -3273,16 +3246,16 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -3291,10 +3264,10 @@
     </row>
     <row r="24" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -3303,16 +3276,16 @@
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -3321,10 +3294,10 @@
     </row>
     <row r="25" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -3333,16 +3306,16 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1">
         <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -3351,10 +3324,10 @@
     </row>
     <row r="26" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -3363,10 +3336,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -3378,10 +3351,10 @@
     </row>
     <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -3390,16 +3363,16 @@
         <v>28</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
@@ -3408,10 +3381,10 @@
     </row>
     <row r="28" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -3420,10 +3393,10 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -3435,10 +3408,10 @@
     </row>
     <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -3447,19 +3420,19 @@
         <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G29" s="1">
         <v>3</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -3468,10 +3441,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -3483,7 +3456,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
@@ -3495,10 +3468,10 @@
     </row>
     <row r="31" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -3507,16 +3480,16 @@
         <v>24</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G31" s="1">
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -3525,10 +3498,10 @@
     </row>
     <row r="32" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -3537,10 +3510,10 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G32" s="1">
         <v>0.5</v>
@@ -3552,22 +3525,22 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
@@ -3579,10 +3552,10 @@
     </row>
     <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -3591,19 +3564,19 @@
         <v>20</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G34" s="1">
         <v>3</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
@@ -3612,10 +3585,10 @@
     </row>
     <row r="35" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -3624,16 +3597,16 @@
         <v>20</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
@@ -3642,10 +3615,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -3654,10 +3627,10 @@
         <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G36" s="1">
         <v>3</v>
@@ -3669,22 +3642,22 @@
     </row>
     <row r="37" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G37" s="1">
         <v>3</v>
@@ -3696,10 +3669,10 @@
     </row>
     <row r="38" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -3708,10 +3681,10 @@
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -3723,10 +3696,10 @@
     </row>
     <row r="39" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -3735,19 +3708,19 @@
         <v>20</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G39" s="1">
         <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
@@ -3756,10 +3729,10 @@
     </row>
     <row r="40" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -3768,16 +3741,16 @@
         <v>20</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
@@ -3786,10 +3759,10 @@
     </row>
     <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -3798,16 +3771,16 @@
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G41" s="1">
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
@@ -3816,10 +3789,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -3828,10 +3801,10 @@
         <v>20</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -3843,10 +3816,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -3855,10 +3828,10 @@
         <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1">
         <v>3</v>
@@ -3870,10 +3843,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C44">
         <v>8</v>
@@ -3882,10 +3855,10 @@
         <v>20</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G44" s="1">
         <v>12</v>
@@ -3925,34 +3898,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -3969,22 +3942,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I2" s="6">
         <v>3</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K2" s="6" t="b">
         <f>EXACT(E2,J2)</f>
@@ -4005,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>15</v>
@@ -4020,7 +3993,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K3" s="6" t="b">
         <f t="shared" ref="K3:K66" si="0">EXACT(E3,J3)</f>
@@ -4035,7 +4008,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D4" s="6">
         <v>4</v>
@@ -4047,16 +4020,16 @@
         <v>18</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I4" s="12">
         <v>4</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K4" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4071,13 +4044,13 @@
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -4097,13 +4070,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6">
         <v>2</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>20</v>
@@ -4112,13 +4085,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I6" s="6">
         <v>2</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K6" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4133,13 +4106,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>22</v>
@@ -4148,13 +4121,13 @@
         <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K7" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4169,13 +4142,13 @@
         <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
@@ -4184,13 +4157,13 @@
         <v>32</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I8" s="6">
         <v>3</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K8" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4211,22 +4184,22 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I9" s="6">
         <v>3</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K9" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4241,13 +4214,13 @@
         <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>28</v>
@@ -4256,13 +4229,13 @@
         <v>23</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I10" s="6">
         <v>2</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K10" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4274,31 +4247,31 @@
         <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I11" s="6">
         <v>2</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K11" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4310,31 +4283,31 @@
         <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I12" s="6">
         <v>2</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K12" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4346,31 +4319,31 @@
         <v>28</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I13" s="6">
         <v>2</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K13" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4385,13 +4358,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>18</v>
@@ -4400,13 +4373,13 @@
         <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I14" s="6">
         <v>3</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K14" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4418,31 +4391,31 @@
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I15" s="6">
         <v>3</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K15" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4454,31 +4427,31 @@
         <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I16" s="6">
         <v>3</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K16" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4490,31 +4463,31 @@
         <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D17" s="6">
         <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I17" s="6">
         <v>4</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K17" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4526,31 +4499,31 @@
         <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I18" s="6">
         <v>3</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K18" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4562,31 +4535,31 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I19" s="12">
         <v>3</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K19" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4598,16 +4571,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -4624,31 +4597,31 @@
         <v>24</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I21" s="6">
         <v>3</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K21" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4660,31 +4633,31 @@
         <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I22" s="12">
         <v>3</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K22" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4696,16 +4669,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -4722,31 +4695,31 @@
         <v>12</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I24" s="6">
         <v>3</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K24" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4758,31 +4731,31 @@
         <v>18</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D25" s="6">
         <v>4</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I25" s="6">
         <v>4</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K25" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4794,31 +4767,31 @@
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D26" s="6">
         <v>3</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I26" s="6">
         <v>3</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K26" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4830,31 +4803,31 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D27" s="6">
         <v>3</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I27" s="6">
         <v>3</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K27" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4866,31 +4839,31 @@
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="D28" s="6">
         <v>3</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="I28" s="6">
         <v>3</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K28" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4902,31 +4875,31 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D29" s="6">
         <v>3</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I29" s="6">
         <v>3</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="K29" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4938,31 +4911,31 @@
         <v>20</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D30" s="6">
         <v>3</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I30" s="6">
         <v>3</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K30" s="6" t="b">
         <f t="shared" si="0"/>
@@ -4974,31 +4947,31 @@
         <v>20</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I31" s="6">
         <v>3</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="K31" s="6" t="b">
         <f t="shared" si="0"/>
@@ -5010,31 +4983,31 @@
         <v>20</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D32" s="6">
         <v>3</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I32" s="6">
         <v>3</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K32" s="6" t="b">
         <f t="shared" si="0"/>
@@ -5046,31 +5019,31 @@
         <v>20</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D33" s="6">
         <v>3</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I33" s="6">
         <v>2</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K33" s="6" t="b">
         <f t="shared" si="0"/>
@@ -5082,31 +5055,31 @@
         <v>20</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D34" s="6">
         <v>3</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I34" s="6">
         <v>3</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K34" s="6" t="b">
         <f t="shared" si="0"/>
@@ -5118,31 +5091,31 @@
         <v>22</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D35" s="6">
         <v>3</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I35" s="6">
         <v>3</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K35" s="6" t="b">
         <f t="shared" si="0"/>
@@ -5151,34 +5124,34 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D36" s="6">
         <v>3</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I36" s="6">
         <v>3</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K36" s="6" t="b">
         <f t="shared" si="0"/>
@@ -5190,31 +5163,31 @@
         <v>20</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D37" s="6">
         <v>3</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I37" s="6">
         <v>2</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K37" s="6" t="b">
         <f t="shared" si="0"/>
@@ -5226,31 +5199,31 @@
         <v>20</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I38" s="6">
         <v>3</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K38" s="6" t="b">
         <f t="shared" si="0"/>
@@ -5262,31 +5235,31 @@
         <v>20</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D39" s="8">
         <v>9</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I39" s="8">
         <v>12</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K39" s="8" t="b">
         <f t="shared" si="0"/>
@@ -5298,7 +5271,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>25</v>
@@ -5307,7 +5280,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>20</v>
@@ -5316,13 +5289,13 @@
         <v>30</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9">
         <v>3</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K40" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5334,7 +5307,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>25</v>
@@ -5343,22 +5316,22 @@
         <v>3</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9">
         <v>3</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K41" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5370,7 +5343,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>25</v>
@@ -5379,22 +5352,22 @@
         <v>3</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9">
         <v>3</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K42" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5406,7 +5379,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>25</v>
@@ -5415,22 +5388,22 @@
         <v>3</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I43" s="9">
         <v>3</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K43" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5445,13 +5418,13 @@
         <v>19</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D44" s="9">
         <v>3</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>20</v>
@@ -5460,13 +5433,13 @@
         <v>30</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9">
         <v>3</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K44" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5481,28 +5454,28 @@
         <v>19</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D45" s="9">
         <v>3</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I45" s="9">
         <v>3</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K45" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5517,28 +5490,28 @@
         <v>19</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46" s="9">
         <v>3</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I46" s="9">
         <v>3</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K46" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5553,28 +5526,28 @@
         <v>19</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D47" s="9">
         <v>3</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I47" s="9">
         <v>3</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K47" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5586,16 +5559,16 @@
         <v>24</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D48" s="9">
         <v>3</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>20</v>
@@ -5604,13 +5577,13 @@
         <v>30</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9">
         <v>3</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K48" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5622,31 +5595,31 @@
         <v>24</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D49" s="9">
         <v>3</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9">
         <v>3</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K49" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5658,31 +5631,31 @@
         <v>24</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D50" s="9">
         <v>3</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I50" s="9">
         <v>3</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K50" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5694,31 +5667,31 @@
         <v>24</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D51" s="9">
         <v>3</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I51" s="9">
         <v>3</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K51" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5730,16 +5703,16 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D52" s="9">
         <v>4</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>20</v>
@@ -5748,13 +5721,13 @@
         <v>30</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9">
         <v>3</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K52" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5766,31 +5739,31 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D53" s="9">
         <v>4</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I53" s="9">
         <v>3</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K53" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5802,31 +5775,31 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D54" s="9">
         <v>4</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9">
         <v>3</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K54" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5838,31 +5811,31 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D55" s="9">
         <v>4</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9">
         <v>3</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K55" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5874,16 +5847,16 @@
         <v>18</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D56" s="9">
         <v>3</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>20</v>
@@ -5892,13 +5865,13 @@
         <v>30</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9">
         <v>3</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K56" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5910,31 +5883,31 @@
         <v>18</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D57" s="9">
         <v>3</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I57" s="9">
         <v>3</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K57" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5946,31 +5919,31 @@
         <v>18</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D58" s="9">
         <v>3</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I58" s="9">
         <v>3</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K58" s="9" t="b">
         <f t="shared" si="0"/>
@@ -5982,31 +5955,31 @@
         <v>18</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D59" s="9">
         <v>3</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I59" s="9">
         <v>3</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K59" s="9" t="b">
         <f t="shared" si="0"/>
@@ -6015,19 +5988,19 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D60" s="9">
         <v>3</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>20</v>
@@ -6036,13 +6009,13 @@
         <v>30</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9">
         <v>3</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K60" s="9" t="b">
         <f t="shared" si="0"/>
@@ -6051,34 +6024,34 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D61" s="9">
         <v>3</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9">
         <v>3</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K61" s="9" t="b">
         <f t="shared" si="0"/>
@@ -6087,34 +6060,34 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D62" s="9">
         <v>3</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9">
         <v>3</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K62" s="9" t="b">
         <f t="shared" si="0"/>
@@ -6123,34 +6096,34 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D63" s="9">
         <v>3</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9">
         <v>3</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K63" s="9" t="b">
         <f t="shared" si="0"/>
@@ -6159,19 +6132,19 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D64" s="9">
         <v>3</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>20</v>
@@ -6180,13 +6153,13 @@
         <v>30</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I64" s="9">
         <v>3</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K64" s="9" t="b">
         <f t="shared" si="0"/>
@@ -6195,34 +6168,34 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D65" s="9">
         <v>3</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9">
         <v>3</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K65" s="9" t="b">
         <f t="shared" si="0"/>
@@ -6231,34 +6204,34 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D66" s="9">
         <v>3</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I66" s="9">
         <v>3</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K66" s="9" t="b">
         <f t="shared" si="0"/>
@@ -6267,34 +6240,34 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D67" s="9">
         <v>3</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I67" s="9">
         <v>3</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K67" s="9" t="b">
         <f t="shared" ref="K67:K77" si="1">EXACT(E67,J67)</f>
@@ -6309,13 +6282,13 @@
         <v>30</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D68" s="9">
         <v>3</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>20</v>
@@ -6324,13 +6297,13 @@
         <v>30</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9">
         <v>3</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K68" s="9" t="b">
         <f t="shared" si="1"/>
@@ -6342,31 +6315,31 @@
         <v>20</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D69" s="9">
         <v>3</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9">
         <v>3</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K69" s="9" t="b">
         <f t="shared" si="1"/>
@@ -6378,31 +6351,31 @@
         <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D70" s="9">
         <v>3</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I70" s="9">
         <v>3</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K70" s="9" t="b">
         <f t="shared" si="1"/>
@@ -6414,31 +6387,31 @@
         <v>20</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D71" s="9">
         <v>3</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I71" s="9">
         <v>3</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K71" s="9" t="b">
         <f t="shared" si="1"/>
@@ -6450,16 +6423,16 @@
         <v>20</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D72" s="9">
         <v>3</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -6476,16 +6449,16 @@
         <v>28</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D73" s="9">
         <v>2</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -6507,16 +6480,16 @@
         <v>15</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I74" s="9">
         <v>0.5</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="K74" s="9" t="b">
         <f t="shared" si="1"/>
@@ -6530,19 +6503,19 @@
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I75" s="9">
         <v>0.5</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K75" s="9" t="b">
         <f t="shared" si="1"/>
@@ -6556,19 +6529,19 @@
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I76" s="9">
         <v>0.5</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K76" s="9" t="b">
         <f t="shared" si="1"/>
@@ -6585,16 +6558,16 @@
         <v>15</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I77" s="9">
         <v>1</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K77" s="9" t="b">
         <f t="shared" si="1"/>
@@ -6603,21 +6576,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
